--- a/regionseng/9/transport and communication/transport and storage.xlsx
+++ b/regionseng/9/transport and communication/transport and storage.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -603,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -616,7 +616,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -649,7 +649,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="16">
         <v>2006</v>
@@ -696,8 +696,14 @@
       <c r="P3" s="36">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="36">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -746,8 +752,14 @@
       <c r="P4" s="35">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="35">
+        <v>14.2</v>
+      </c>
+      <c r="R4" s="35">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
@@ -796,8 +808,14 @@
       <c r="P5" s="15">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="35">
+        <v>50</v>
+      </c>
+      <c r="R5" s="35">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
@@ -846,8 +864,14 @@
       <c r="P6" s="15">
         <v>435</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="15">
+        <v>604</v>
+      </c>
+      <c r="R6" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -896,8 +920,14 @@
       <c r="P7" s="15">
         <v>335</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="15">
+        <v>373</v>
+      </c>
+      <c r="R7" s="15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
@@ -946,8 +976,14 @@
       <c r="P8" s="15">
         <v>288.60000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="15">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="R8" s="35">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
@@ -996,8 +1032,14 @@
       <c r="P9" s="15">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="15">
+        <v>35.9</v>
+      </c>
+      <c r="R9" s="15">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
@@ -1046,8 +1088,14 @@
       <c r="P10" s="15">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="R10" s="15">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
@@ -1096,8 +1144,14 @@
       <c r="P11" s="15">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="R11" s="15">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
@@ -1146,8 +1200,14 @@
       <c r="P12" s="15">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="15">
+        <v>31.2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>13</v>
       </c>
@@ -1196,8 +1256,14 @@
       <c r="P13" s="15">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="15">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R13" s="15">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>14</v>
       </c>
@@ -1246,11 +1312,17 @@
       <c r="P14" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="35">
+        <v>0</v>
+      </c>
+      <c r="R14" s="35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>

--- a/regionseng/9/transport and communication/transport and storage.xlsx
+++ b/regionseng/9/transport and communication/transport and storage.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238936FE-351F-4BE7-B35F-225A941B86AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21990" windowHeight="8010"/>
+    <workbookView xWindow="14355" yWindow="1905" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,10 +232,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -245,10 +242,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,7 +287,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,6 +386,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -427,6 +438,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,27 +644,27 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -649,680 +677,716 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14">
         <v>2006</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>2007</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>2008</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>2009</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>2010</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>2011</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>2012</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>2013</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="16">
         <v>2014</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>2015</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="15">
         <v>2016</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="17">
         <v>2017</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="17">
         <v>2018</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="17">
         <v>2019</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="33">
         <v>2020</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="33">
         <v>2021</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="33">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="S3" s="33">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>0.61694000000000004</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>0.53542000000000001</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>0.83487999999999996</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>0.46762999999999999</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>2.4561700000000002</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>1.09233</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <v>3.5</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="21">
         <v>1.5</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="22">
         <v>9.8092999999999986</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="22">
         <v>4.3048999999999999</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="23">
         <v>10.5</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="19">
         <v>22.894670000000001</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="19">
         <v>12.181789999999999</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="13">
         <v>13.9</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="32">
         <v>9</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="32">
         <v>14.2</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="32">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="S4" s="32">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>0.61694000000000004</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>0.53542000000000001</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>0.83489000000000002</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>0.46762999999999999</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <v>2.4561700000000002</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>1.09233</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>3.3</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <v>1.5</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
         <v>10.1</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="23">
         <v>4.3</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="23">
         <v>10.3</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="19">
         <v>22.894680000000001</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="19">
         <v>17.364190000000001</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="13">
         <v>14.6</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="13">
         <v>9.4</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="32">
         <v>50</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="32">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="S5" s="32">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>330.65478000000002</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>190.99999</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>232.15152</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>236.5</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="24">
         <v>416.15217000000001</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <v>65.74221</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>272</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="21">
         <v>97</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="23">
         <v>393</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="23">
         <v>334</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="23">
         <v>309</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="24">
         <v>713.96531000000004</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="24">
         <v>636.65427</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="13">
         <v>646</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="13">
         <v>435</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="13">
         <v>604</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="13">
         <v>707</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="S6" s="13">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <v>176.33332999999999</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>87.428560000000004</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>184</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <v>221</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="24">
         <v>390.15217000000001</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="24">
         <v>55.909939999999999</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <v>214</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="21">
         <v>83</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
         <v>359</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <v>249</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="23">
         <v>156</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="24">
         <v>296.02015</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="24">
         <v>372.06432999999998</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="13">
         <v>401</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="13">
         <v>335</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="13">
         <v>373</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="13">
         <v>261</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="S7" s="13">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>80.953412</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>129.26472200000001</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>110.54076000000001</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>98.069946999999999</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>435.53567399999997</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>346.71144700000002</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <v>215.2</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="21">
         <v>194.2</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="22">
         <v>139.80000000000001</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <v>188</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="23">
         <v>345.7</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="19">
         <v>345.82295199999999</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="19">
         <v>446.63172600000001</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="13">
         <v>716.2</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="13">
         <v>288.60000000000002</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="13">
         <v>565.29999999999995</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="32">
         <v>844</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="S8" s="32">
+        <v>1329.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>0.17877000000000001</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>0.16958999999999999</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>0.42838999999999999</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>9.7549999999999998E-2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>0.32146000000000002</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>0.73058999999999996</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="21">
         <v>0.6</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="22">
         <v>8.5357000000000003</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>1.8564000000000001</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="23">
         <v>6.3</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="19">
         <v>3.9948000000000001</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="19">
         <v>10.724589999999999</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="13">
         <v>6.7</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="13">
         <v>4.5</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="13">
         <v>35.9</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="13">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="S9" s="13">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>0.20729</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <v>0.16394</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>0.24407999999999999</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>0.26007999999999998</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="19">
         <v>2.03911</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <v>0.23261000000000001</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <v>0.6</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="21">
         <v>0.2</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="22">
         <v>0.6028</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="22">
         <v>0.56089999999999995</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="23">
         <v>0.6</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="19">
         <v>1.22845</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="19">
         <v>1.99411</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="13">
         <v>3.6</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="13">
         <v>1.2</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="13">
         <v>2.6</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="13">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="S10" s="13">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>0.43819999999999998</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>0.36584</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>0.40649999999999997</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>0.37009999999999998</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>2.1347</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>0.36176000000000003</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <v>1</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="21">
         <v>0.9</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="22">
         <v>1.5717000000000001</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="22">
         <v>2.4485000000000001</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="22">
         <v>4</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="19">
         <v>18.89988</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="19">
         <v>6.6396100000000002</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="13">
         <v>7.9</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="13">
         <v>14.1</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="13">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="S11" s="13">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>1.6379999999999999E-2</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>5.5989999999999998E-2</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>5.1189999999999999E-2</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>0</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <v>0</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="22">
         <v>0.36480000000000001</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="22">
         <v>0.30280000000000001</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="23">
         <v>0.5</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="19">
         <v>1.69042</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="19">
         <v>0.15586</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="13">
         <v>0.8</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="13">
         <v>1.7</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="13">
         <v>31.2</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="13">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="S12" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>0.16743</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>0.41854000000000002</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>8.4839999999999999E-2</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <v>0.30415999999999999</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>0.72545999999999999</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="21">
         <v>2.5</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="21">
         <v>0.6</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <v>8.2784999999999993</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="20">
         <v>1.4135</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="20">
         <v>6.3</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="19">
         <v>3.83724</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="19">
         <v>10.09309</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="13">
         <v>6.6</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="13">
         <v>4.5</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="13">
         <v>35.799999999999997</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="13">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="S13" s="13">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27">
         <v>0</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>0</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="27">
         <v>0</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <v>0</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="28">
         <v>0.3</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="30">
         <v>0.1</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="27">
         <v>0.53686999999999996</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="32">
         <v>0</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="32">
         <v>0</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="32">
         <v>0</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="32">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1349,21 +1413,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
     </row>
@@ -1378,7 +1442,7 @@
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
